--- a/backend/translated/data.xlsx
+++ b/backend/translated/data.xlsx
@@ -544,7 +544,7 @@
       <c r="B3" s="8" t="n"/>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hôm nay thật sự nóng nhỉ.</t>
+          <t xml:space="preserve"> Hôm nay thật nóng, phải không?</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -634,7 +634,7 @@
     <row r="9" ht="15.75" customHeight="1" s="6">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xin lỗi vì đã trả lời chậm.</t>
+          <t xml:space="preserve"> Xin lỗi vì đã trễ.</t>
         </is>
       </c>
       <c r="B9" s="10" t="n"/>
@@ -669,7 +669,7 @@
     <row r="5" ht="15.75" customHeight="1" s="6">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tôi muốn nấu món ăn ngon.</t>
+          <t xml:space="preserve"> Tôi muốn làm món ăn ngon.</t>
         </is>
       </c>
     </row>

--- a/backend/translated/data.xlsx
+++ b/backend/translated/data.xlsx
@@ -522,7 +522,7 @@
     <row r="1" ht="13.8" customHeight="1" s="6">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chào buổi sáng</t>
+          <t xml:space="preserve"> Chào buổi sáng.</t>
         </is>
       </c>
       <c r="B1" s="8" t="n"/>
@@ -533,7 +533,7 @@
       <c r="A2" s="8" t="n"/>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tôi thích ăn đồ Nhật.</t>
+          <t xml:space="preserve"> Tôi thích ăn đồ ăn Nhật.</t>
         </is>
       </c>
       <c r="C2" s="8" t="n"/>
@@ -544,7 +544,7 @@
       <c r="B3" s="8" t="n"/>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hôm nay thật nóng, phải không?</t>
+          <t xml:space="preserve"> Hôm nay nóng quá nhỉ.</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -592,7 +592,7 @@
       <c r="A2" s="10" t="n"/>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chào bạn, bạn khỏe không?</t>
+          <t>お元気ですか？</t>
         </is>
       </c>
       <c r="C2" s="10" t="n"/>
@@ -605,7 +605,7 @@
     <row r="4" ht="15.75" customHeight="1" s="6">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ngày mai có kế hoạch bận rộn.</t>
+          <t>明日は忙しい予定があります。</t>
         </is>
       </c>
       <c r="B4" s="10" t="n"/>
@@ -634,7 +634,7 @@
     <row r="9" ht="15.75" customHeight="1" s="6">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xin lỗi vì đã trễ.</t>
+          <t>ごめんなさい、遅くなりました。</t>
         </is>
       </c>
       <c r="B9" s="10" t="n"/>
@@ -669,7 +669,7 @@
     <row r="5" ht="15.75" customHeight="1" s="6">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tôi muốn làm món ăn ngon.</t>
+          <t>おいしい料=理を作りたいと思います。</t>
         </is>
       </c>
     </row>
